--- a/npr_technology_news.xlsx
+++ b/npr_technology_news.xlsx
@@ -458,518 +458,518 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>After 6 years, Hollow Knight Silksong is here at last — and it was worth the wait</t>
+          <t>A play about the revolt of human workers — not machines — gave us the word 'robot'</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>September 8, 2025 •Hollow Knight was a Kickstarter-backed project that obliterated expectations. Now, after years of rumors, memes and anticipation, the three-person indie developer Team Cherry has delivered the sequel.</t>
+          <t>September 11, 2025 •A Czech playwright introduced the word to English in the 1920s. But back then, it wasn't analogous to machinery. New interpretations of the robot reflect a modernity once skewered by the writer.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/09/08/nx-s1-5533199/hollow-knight-silksong</t>
+          <t>https://www.npr.org/2025/09/11/nx-s1-5532095/where-word-robot-came-from-rur</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>How AI slop is clogging your brain</t>
+          <t>Lab results confusing? Some patients use AI to interpret them, for better or worse</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>September 8, 2025 •Bizarre videos, uncanny photos, and Luigi Mangoine's likeness on Shein...? AI slop is taking over the web. It's putting money in people's pockets, and driving them offline, too.</t>
+          <t>September 11, 2025 •While patients wait to hear back from their doctors about test results, many turn to AI assistants for answers. There are issues with privacy and accuracy.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/09/08/nx-s1-5528762/how-ai-slop-is-clogging-your-brain</t>
+          <t>https://www.npr.org/sections/shots-health-news/2025/09/11/nx-s1-5537067/ai-medicine-privacy-test-results</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fantasy or faith? One company's AI-generated Bible content stirs controversy</t>
+          <t>After 6 years, Hollow Knight Silksong is here at last — and it was worth the wait</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>September 7, 2025 •"The AI Bible is a way to really bring these stories to life in a way that people have never seen before. Think of if we were like, the Marvel Universe of faith," said one of the site's creators.</t>
+          <t>September 8, 2025 •Hollow Knight was a Kickstarter-backed project that obliterated expectations. Now, after years of rumors, memes and anticipation, the three-person indie developer Team Cherry has delivered the sequel.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/09/07/nx-s1-5518263/ai-bible-christianity-content</t>
+          <t>https://www.npr.org/2025/09/08/nx-s1-5533199/hollow-knight-silksong</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The U.S. government is taking a stake in Intel. It's rare — and it has some risks</t>
+          <t>How AI slop is clogging your brain</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>September 6, 2025 •In the past, the federal government has taken stakes in American companies during wars or economic crises. But now the government's motivation has more to do with the race for AI chips and technology.</t>
+          <t>September 8, 2025 •Bizarre videos, uncanny photos, and Luigi Mangoine's likeness on Shein...? AI slop is taking over the web. It's putting money in people's pockets, and driving them offline, too.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/09/06/nx-s1-5530190/government-stake-intel-ai-competition-china</t>
+          <t>https://www.npr.org/2025/09/08/nx-s1-5528762/how-ai-slop-is-clogging-your-brain</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Anthropic settles with authors in first-of-its-kind AI copyright infringement lawsuit</t>
+          <t>Fantasy or faith? One company's AI-generated Bible content stirs controversy</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>September 5, 2025 •A U.S. district court is scheduled to consider whether to approve the settlement next week, in a case that marked the first substantive decision on how fair use applies to generative AI systems.</t>
+          <t>September 7, 2025 •"The AI Bible is a way to really bring these stories to life in a way that people have never seen before. Think of if we were like, the Marvel Universe of faith," said one of the site's creators.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/09/05/nx-s1-5529404/anthropic-settlement-authors-copyright-ai</t>
+          <t>https://www.npr.org/2025/09/07/nx-s1-5518263/ai-bible-christianity-content</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Anthropic to pay authors $1.5B to settle lawsuit over pirated chatbot training material</t>
+          <t>The U.S. government is taking a stake in Intel. It's rare — and it has some risks</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>September 5, 2025 •The artificial intelligence company Anthropic has agreed to pay authors $3,000 per book in a landmark settlement over pirated chatbot training material.</t>
+          <t>September 6, 2025 •In the past, the federal government has taken stakes in American companies during wars or economic crises. But now the government's motivation has more to do with the race for AI chips and technology.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/09/05/g-s1-87367/anthropic-authors-settlement-pirated-chatbot-training-material</t>
+          <t>https://www.npr.org/2025/09/06/nx-s1-5530190/government-stake-intel-ai-competition-china</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>'Founders Museum' from White House and PragerU blurs history, AI-generated fiction</t>
+          <t>Anthropic settles with authors in first-of-its-kind AI copyright infringement lawsuit</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>September 3, 2025 •Historians say it's good to highlight America's founders, but the project takes too narrow a view of history.</t>
+          <t>September 5, 2025 •A U.S. district court is scheduled to consider whether to approve the settlement next week, in a case that marked the first substantive decision on how fair use applies to generative AI systems.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/09/03/nx-s1-5521261/white-house-ai-founders-museum</t>
+          <t>https://www.npr.org/2025/09/05/nx-s1-5529404/anthropic-settlement-authors-copyright-ai</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>In a major antitrust ruling, a judge lets Google keep Chrome but levies other penalties</t>
+          <t>Anthropic to pay authors $1.5B to settle lawsuit over pirated chatbot training material</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>September 2, 2025 •A federal judge ruled against breaking up Google, but is barring it from making exclusive deals to make its search engine the default on phones and other devices.</t>
+          <t>September 5, 2025 •The artificial intelligence company Anthropic has agreed to pay authors $3,000 per book in a landmark settlement over pirated chatbot training material.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/09/02/nx-s1-5478625/google-chrome-doj-antitrust-ruling</t>
+          <t>https://www.npr.org/2025/09/05/g-s1-87367/anthropic-authors-settlement-pirated-chatbot-training-material</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>With no federal facial recognition law, states rush to fill void</t>
+          <t>'Founders Museum' from White House and PragerU blurs history, AI-generated fiction</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>August 28, 2025 •Nearly two dozen states have passed laws regulating how tech companies collect data from our faces, eyes and voices. It comes as Congress has yet to pass any facial recognition technology.</t>
+          <t>September 3, 2025 •Historians say it's good to highlight America's founders, but the project takes too narrow a view of history.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/28/nx-s1-5519756/biometrics-facial-recognition-laws-privacy</t>
+          <t>https://www.npr.org/2025/09/03/nx-s1-5521261/white-house-ai-founders-museum</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>'AI slop' videos may be annoying, but they're racking up views — and ad money</t>
+          <t>In a major antitrust ruling, a judge lets Google keep Chrome but levies other penalties</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>August 28, 2025 •Critics say that "slop" videos made with generative AI are often repetitive or useless. But they get millions of views — and platforms are grappling with what to do about them.</t>
+          <t>September 2, 2025 •A federal judge ruled against breaking up Google, but is barring it from making exclusive deals to make its search engine the default on phones and other devices.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/28/nx-s1-5493485/ai-slop-videos-youtube-tiktok</t>
+          <t>https://www.npr.org/2025/09/02/nx-s1-5478625/google-chrome-doj-antitrust-ruling</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AI 'deadbots' are persuasive — and researchers say they're primed for monetization</t>
+          <t>With no federal facial recognition law, states rush to fill void</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>August 26, 2025 •The digital afterlife industry may near $80 billion in a decade, fueled by AI "deadbots." Tech firms see profit. But experts warn of troubling consequences.</t>
+          <t>August 28, 2025 •Nearly two dozen states have passed laws regulating how tech companies collect data from our faces, eyes and voices. It comes as Congress has yet to pass any facial recognition technology.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/26/nx-s1-5508355/ai-dead-people-chatbots-videos-parkland-court</t>
+          <t>https://www.npr.org/2025/08/28/nx-s1-5519756/biometrics-facial-recognition-laws-privacy</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Whistleblower says Trump officials copied millions of Social Security numbers</t>
+          <t>'AI slop' videos may be annoying, but they're racking up views — and ad money</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>August 26, 2025 •A whistleblower complaint says the personal data of over 300 million Americans was copied to a private cloud account to allow access by former members of the Department of Government Efficiency team.</t>
+          <t>August 28, 2025 •Critics say that "slop" videos made with generative AI are often repetitive or useless. But they get millions of views — and platforms are grappling with what to do about them.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/26/nx-s1-5517977/social-security-doge-privacy</t>
+          <t>https://www.npr.org/2025/08/28/nx-s1-5493485/ai-slop-videos-youtube-tiktok</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel will give the U.S. government a 10% stake, Trump says</t>
+          <t>AI 'deadbots' are persuasive — and researchers say they're primed for monetization</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>August 22, 2025 •The president's highly unusual announcement underscores the Trump administration's desire to take control over U.S. businesses.</t>
+          <t>August 26, 2025 •The digital afterlife industry may near $80 billion in a decade, fueled by AI "deadbots." Tech firms see profit. But experts warn of troubling consequences.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/22/nx-s1-5509673/trump-says-us-government-will-take-stake-intel</t>
+          <t>https://www.npr.org/2025/08/26/nx-s1-5508355/ai-dead-people-chatbots-videos-parkland-court</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>These brain implants speak your mind — even when you don't want to</t>
+          <t>Whistleblower says Trump officials copied millions of Social Security numbers</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>August 20, 2025 •Brain-implanted devices that allow paralyzed people to speak can also decode words they imagine, but don't intend to share.</t>
+          <t>August 26, 2025 •A whistleblower complaint says the personal data of over 300 million Americans was copied to a private cloud account to allow access by former members of the Department of Government Efficiency team.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-08-20</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.npr.org/sections/shots-health-news/2025/08/20/nx-s1-5506334/brain-computer-implant-speak-inner-speech-mind</t>
+          <t>https://www.npr.org/2025/08/26/nx-s1-5517977/social-security-doge-privacy</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Research suggests doctors might quickly become dependent on AI</t>
+          <t>Intel will give the U.S. government a 10% stake, Trump says</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>August 19, 2025 •A study in Poland found that doctors appeared less likely to detect abnormalities during colonoscopies on their own after they'd grown used to help from an AI tool.</t>
+          <t>August 22, 2025 •The president's highly unusual announcement underscores the Trump administration's desire to take control over U.S. businesses.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.npr.org/sections/shots-health-news/2025/08/19/nx-s1-5506292/doctors-ai-artificial-intelligence-dependent-colonoscopy</t>
+          <t>https://www.npr.org/2025/08/22/nx-s1-5509673/trump-says-us-government-will-take-stake-intel</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>An AI divide is growing in schools. This camp wants to level the playing field</t>
+          <t>These brain implants speak your mind — even when you don't want to</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>August 19, 2025 •For years, research has shown a digital divide when it comes to schools teaching about new technologies. Educators worry that this could leave some students behind in an AI-powered economy.</t>
+          <t>August 20, 2025 •Brain-implanted devices that allow paralyzed people to speak can also decode words they imagine, but don't intend to share.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/19/nx-s1-5503984/ai-summer-camp-schools-education</t>
+          <t>https://www.npr.org/sections/shots-health-news/2025/08/20/nx-s1-5506334/brain-computer-implant-speak-inner-speech-mind</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>What's behind the Trump administration's immigration memes?</t>
+          <t>Research suggests doctors might quickly become dependent on AI</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>August 18, 2025 •White supremacist tropes and ironic viral jokes illustrate the administration's project of redefining who belongs in the United States.</t>
+          <t>August 19, 2025 •A study in Poland found that doctors appeared less likely to detect abnormalities during colonoscopies on their own after they'd grown used to help from an AI tool.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/18/nx-s1-5482921/memes-white-house-dhs-social-media-trump</t>
+          <t>https://www.npr.org/sections/shots-health-news/2025/08/19/nx-s1-5506292/doctors-ai-artificial-intelligence-dependent-colonoscopy</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Class-action suit claims Otter AI secretly records private work conversations</t>
+          <t>An AI divide is growing in schools. This camp wants to level the playing field</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>August 15, 2025 •The suit claims the popular service may be recording and processing millions of users' private conversations without consent.</t>
+          <t>August 19, 2025 •For years, research has shown a digital divide when it comes to schools teaching about new technologies. Educators worry that this could leave some students behind in an AI-powered economy.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/15/g-s1-83087/otter-ai-transcription-class-action-lawsuit</t>
+          <t>https://www.npr.org/2025/08/19/nx-s1-5503984/ai-summer-camp-schools-education</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Anti-Trump podcast MeidasTouch is rivaling Joe Rogan. Does it have staying power?</t>
+          <t>What's behind the Trump administration's immigration memes?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>August 14, 2025 •The left-leaning media outfit has surged in Donald Trump's second term, appealing to progressives outraged by the president. Still, the online streaming world remains dominated by right-wing voices.</t>
+          <t>August 18, 2025 •White supremacist tropes and ironic viral jokes illustrate the administration's project of redefining who belongs in the United States.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/14/nx-s1-5493541/meidastouch-rogan-trump-podcast-video</t>
+          <t>https://www.npr.org/2025/08/18/nx-s1-5482921/memes-white-house-dhs-social-media-trump</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Trump is tightening the screws on corporate America — and CEOs are staying mum</t>
+          <t>Class-action suit claims Otter AI secretly records private work conversations</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>August 14, 2025 •Critics warn that Trump's demands for business leaders to step down, and for the government to take a cut of sales, threaten American-style capitalism.</t>
+          <t>August 15, 2025 •The suit claims the popular service may be recording and processing millions of users' private conversations without consent.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/14/nx-s1-5501591/trump-corporate-america-capitalism</t>
+          <t>https://www.npr.org/2025/08/15/g-s1-83087/otter-ai-transcription-class-action-lawsuit</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Say bye-bye to the beeps and boops of AOL's dial-up internet service</t>
+          <t>Anti-Trump podcast MeidasTouch is rivaling Joe Rogan. Does it have staying power?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>August 12, 2025 •AOL debuted the service in 1989. Dial-up has largely been replaced by broadband internet.</t>
+          <t>August 14, 2025 •The left-leaning media outfit has surged in Donald Trump's second term, appealing to progressives outraged by the president. Still, the online streaming world remains dominated by right-wing voices.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/12/nx-s1-5499539/aol-dial-up-ending</t>
+          <t>https://www.npr.org/2025/08/14/nx-s1-5493541/meidastouch-rogan-trump-podcast-video</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ford says it will roll out a cheaper electric pickup truck</t>
+          <t>Trump is tightening the screws on corporate America — and CEOs are staying mum</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>August 11, 2025 •Ford announced it will retool its Louisville Assembly Plant to focus on electric trucks. Its goal: to bring down prices for U.S. buyers and compete with Chinese EV makers on the global market.</t>
+          <t>August 14, 2025 •Critics warn that Trump's demands for business leaders to step down, and for the government to take a cut of sales, threaten American-style capitalism.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/11/nx-s1-5496651/ford-cheap-electric-truck</t>
+          <t>https://www.npr.org/2025/08/14/nx-s1-5501591/trump-corporate-america-capitalism</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Trump says Nvidia will hand the U.S. 15% of its H20 chip sales to China</t>
+          <t>Say bye-bye to the beeps and boops of AOL's dial-up internet service</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>August 11, 2025 •The president said that Nvidia would pay the government in exchange for easing export restrictions — and that he'd initially asked for a larger cut.</t>
+          <t>August 12, 2025 •AOL debuted the service in 1989. Dial-up has largely been replaced by broadband internet.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/11/nx-s1-5498689/trump-nvidia-h20-chip-sales-china</t>
+          <t>https://www.npr.org/2025/08/12/nx-s1-5499539/aol-dial-up-ending</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Boston Public Library aims to increase access to a vast historic archive using AI</t>
+          <t>Ford says it will roll out a cheaper electric pickup truck</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>August 11, 2025 •The library is launching a project in collaboration with Harvard Law School and OpenAI this summer to digitize the materials and make them more fully searchable.</t>
+          <t>August 11, 2025 •Ford announced it will retool its Louisville Assembly Plant to focus on electric trucks. Its goal: to bring down prices for U.S. buyers and compete with Chinese EV makers on the global market.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/11/nx-s1-5471614/boston-public-library-harvard-ai</t>
+          <t>https://www.npr.org/2025/08/11/nx-s1-5496651/ford-cheap-electric-truck</t>
         </is>
       </c>
     </row>

--- a/npr_technology_news.xlsx
+++ b/npr_technology_news.xlsx
@@ -458,34 +458,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A play about the revolt of human workers — not machines — gave us the word 'robot'</t>
+          <t>Why parents need to talk to their teens about AI — and how to start the conversation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>September 11, 2025 •A Czech playwright introduced the word to English in the 1920s. But back then, it wasn't analogous to machinery. New interpretations of the robot reflect a modernity once skewered by the writer.</t>
+          <t>September 13, 2025 •Many teens are using artificial intelligence chatbots like ChatGPT for everything from homework to relationship advice. Experts say parents must lead the way in helping them understand the technology.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/09/11/nx-s1-5532095/where-word-robot-came-from-rur</t>
+          <t>https://www.npr.org/2025/09/13/nx-s1-5506114/why-parents-need-talk-teens-ai-how-to-start-conversation</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lab results confusing? Some patients use AI to interpret them, for better or worse</t>
+          <t>A play about the revolt of human workers — not machines — gave us the word 'robot'</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>September 11, 2025 •While patients wait to hear back from their doctors about test results, many turn to AI assistants for answers. There are issues with privacy and accuracy.</t>
+          <t>September 11, 2025 •A Czech playwright introduced the word to English in the 1920s. But back then, it wasn't analogous to machinery. New interpretations of the robot reflect a modernity once skewered by the writer.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,41 +495,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.npr.org/sections/shots-health-news/2025/09/11/nx-s1-5537067/ai-medicine-privacy-test-results</t>
+          <t>https://www.npr.org/2025/09/11/nx-s1-5532095/where-word-robot-came-from-rur</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>After 6 years, Hollow Knight Silksong is here at last — and it was worth the wait</t>
+          <t>Running your lab results by ChatGPT? Here's what to keep in mind</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>September 8, 2025 •Hollow Knight was a Kickstarter-backed project that obliterated expectations. Now, after years of rumors, memes and anticipation, the three-person indie developer Team Cherry has delivered the sequel.</t>
+          <t>September 11, 2025 •While patients wait to hear back from their doctors about test results, many turn to AI assistants for answers. There are issues with privacy and accuracy.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/09/08/nx-s1-5533199/hollow-knight-silksong</t>
+          <t>https://www.npr.org/sections/shots-health-news/2025/09/11/nx-s1-5537067/ai-medicine-privacy-test-results</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>How AI slop is clogging your brain</t>
+          <t>After 6 years, Hollow Knight Silksong is here at last — and it was worth the wait</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>September 8, 2025 •Bizarre videos, uncanny photos, and Luigi Mangoine's likeness on Shein...? AI slop is taking over the web. It's putting money in people's pockets, and driving them offline, too.</t>
+          <t>September 8, 2025 •Hollow Knight was a Kickstarter-backed project that obliterated expectations. Now, after years of rumors, memes and anticipation, the three-person indie developer Team Cherry has delivered the sequel.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -539,85 +539,85 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/09/08/nx-s1-5528762/how-ai-slop-is-clogging-your-brain</t>
+          <t>https://www.npr.org/2025/09/08/nx-s1-5533199/hollow-knight-silksong</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fantasy or faith? One company's AI-generated Bible content stirs controversy</t>
+          <t>How AI slop is clogging your brain</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>September 7, 2025 •"The AI Bible is a way to really bring these stories to life in a way that people have never seen before. Think of if we were like, the Marvel Universe of faith," said one of the site's creators.</t>
+          <t>September 8, 2025 •Bizarre videos, uncanny photos, and Luigi Mangoine's likeness on Shein...? AI slop is taking over the web. It's putting money in people's pockets, and driving them offline, too.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/09/07/nx-s1-5518263/ai-bible-christianity-content</t>
+          <t>https://www.npr.org/2025/09/08/nx-s1-5528762/how-ai-slop-is-clogging-your-brain</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The U.S. government is taking a stake in Intel. It's rare — and it has some risks</t>
+          <t>Fantasy or faith? One company's AI-generated Bible content stirs controversy</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>September 6, 2025 •In the past, the federal government has taken stakes in American companies during wars or economic crises. But now the government's motivation has more to do with the race for AI chips and technology.</t>
+          <t>September 7, 2025 •"The AI Bible is a way to really bring these stories to life in a way that people have never seen before. Think of if we were like, the Marvel Universe of faith," said one of the site's creators.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/09/06/nx-s1-5530190/government-stake-intel-ai-competition-china</t>
+          <t>https://www.npr.org/2025/09/07/nx-s1-5518263/ai-bible-christianity-content</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Anthropic settles with authors in first-of-its-kind AI copyright infringement lawsuit</t>
+          <t>The U.S. government is taking a stake in Intel. It's rare — and it has some risks</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>September 5, 2025 •A U.S. district court is scheduled to consider whether to approve the settlement next week, in a case that marked the first substantive decision on how fair use applies to generative AI systems.</t>
+          <t>September 6, 2025 •In the past, the federal government has taken stakes in American companies during wars or economic crises. But now the government's motivation has more to do with the race for AI chips and technology.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/09/05/nx-s1-5529404/anthropic-settlement-authors-copyright-ai</t>
+          <t>https://www.npr.org/2025/09/06/nx-s1-5530190/government-stake-intel-ai-competition-china</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Anthropic to pay authors $1.5B to settle lawsuit over pirated chatbot training material</t>
+          <t>Anthropic settles with authors in first-of-its-kind AI copyright infringement lawsuit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>September 5, 2025 •The artificial intelligence company Anthropic has agreed to pay authors $3,000 per book in a landmark settlement over pirated chatbot training material.</t>
+          <t>September 5, 2025 •A U.S. district court is scheduled to consider whether to approve the settlement next week, in a case that marked the first substantive decision on how fair use applies to generative AI systems.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -627,85 +627,85 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/09/05/g-s1-87367/anthropic-authors-settlement-pirated-chatbot-training-material</t>
+          <t>https://www.npr.org/2025/09/05/nx-s1-5529404/anthropic-settlement-authors-copyright-ai</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>'Founders Museum' from White House and PragerU blurs history, AI-generated fiction</t>
+          <t>Anthropic to pay authors $1.5B to settle lawsuit over pirated chatbot training material</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>September 3, 2025 •Historians say it's good to highlight America's founders, but the project takes too narrow a view of history.</t>
+          <t>September 5, 2025 •The artificial intelligence company Anthropic has agreed to pay authors $3,000 per book in a landmark settlement over pirated chatbot training material.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/09/03/nx-s1-5521261/white-house-ai-founders-museum</t>
+          <t>https://www.npr.org/2025/09/05/g-s1-87367/anthropic-authors-settlement-pirated-chatbot-training-material</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>In a major antitrust ruling, a judge lets Google keep Chrome but levies other penalties</t>
+          <t>'Founders Museum' from White House and PragerU blurs history, AI-generated fiction</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>September 2, 2025 •A federal judge ruled against breaking up Google, but is barring it from making exclusive deals to make its search engine the default on phones and other devices.</t>
+          <t>September 3, 2025 •Historians say it's good to highlight America's founders, but the project takes too narrow a view of history.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/09/02/nx-s1-5478625/google-chrome-doj-antitrust-ruling</t>
+          <t>https://www.npr.org/2025/09/03/nx-s1-5521261/white-house-ai-founders-museum</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>With no federal facial recognition law, states rush to fill void</t>
+          <t>In a major antitrust ruling, a judge lets Google keep Chrome but levies other penalties</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>August 28, 2025 •Nearly two dozen states have passed laws regulating how tech companies collect data from our faces, eyes and voices. It comes as Congress has yet to pass any facial recognition technology.</t>
+          <t>September 2, 2025 •A federal judge ruled against breaking up Google, but is barring it from making exclusive deals to make its search engine the default on phones and other devices.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/28/nx-s1-5519756/biometrics-facial-recognition-laws-privacy</t>
+          <t>https://www.npr.org/2025/09/02/nx-s1-5478625/google-chrome-doj-antitrust-ruling</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>'AI slop' videos may be annoying, but they're racking up views — and ad money</t>
+          <t>With no federal facial recognition law, states rush to fill void</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>August 28, 2025 •Critics say that "slop" videos made with generative AI are often repetitive or useless. But they get millions of views — and platforms are grappling with what to do about them.</t>
+          <t>August 28, 2025 •Nearly two dozen states have passed laws regulating how tech companies collect data from our faces, eyes and voices. It comes as Congress has yet to pass any facial recognition technology.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -715,41 +715,41 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/28/nx-s1-5493485/ai-slop-videos-youtube-tiktok</t>
+          <t>https://www.npr.org/2025/08/28/nx-s1-5519756/biometrics-facial-recognition-laws-privacy</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AI 'deadbots' are persuasive — and researchers say they're primed for monetization</t>
+          <t>'AI slop' videos may be annoying, but they're racking up views — and ad money</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>August 26, 2025 •The digital afterlife industry may near $80 billion in a decade, fueled by AI "deadbots." Tech firms see profit. But experts warn of troubling consequences.</t>
+          <t>August 28, 2025 •Critics say that "slop" videos made with generative AI are often repetitive or useless. But they get millions of views — and platforms are grappling with what to do about them.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/26/nx-s1-5508355/ai-dead-people-chatbots-videos-parkland-court</t>
+          <t>https://www.npr.org/2025/08/28/nx-s1-5493485/ai-slop-videos-youtube-tiktok</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Whistleblower says Trump officials copied millions of Social Security numbers</t>
+          <t>AI 'deadbots' are persuasive — and researchers say they're primed for monetization</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>August 26, 2025 •A whistleblower complaint says the personal data of over 300 million Americans was copied to a private cloud account to allow access by former members of the Department of Government Efficiency team.</t>
+          <t>August 26, 2025 •The digital afterlife industry may near $80 billion in a decade, fueled by AI "deadbots." Tech firms see profit. But experts warn of troubling consequences.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -759,85 +759,85 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/26/nx-s1-5517977/social-security-doge-privacy</t>
+          <t>https://www.npr.org/2025/08/26/nx-s1-5508355/ai-dead-people-chatbots-videos-parkland-court</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel will give the U.S. government a 10% stake, Trump says</t>
+          <t>Whistleblower says Trump officials copied millions of Social Security numbers</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>August 22, 2025 •The president's highly unusual announcement underscores the Trump administration's desire to take control over U.S. businesses.</t>
+          <t>August 26, 2025 •A whistleblower complaint says the personal data of over 300 million Americans was copied to a private cloud account to allow access by former members of the Department of Government Efficiency team.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/22/nx-s1-5509673/trump-says-us-government-will-take-stake-intel</t>
+          <t>https://www.npr.org/2025/08/26/nx-s1-5517977/social-security-doge-privacy</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>These brain implants speak your mind — even when you don't want to</t>
+          <t>Intel will give the U.S. government a 10% stake, Trump says</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>August 20, 2025 •Brain-implanted devices that allow paralyzed people to speak can also decode words they imagine, but don't intend to share.</t>
+          <t>August 22, 2025 •The president's highly unusual announcement underscores the Trump administration's desire to take control over U.S. businesses.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-08-20</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.npr.org/sections/shots-health-news/2025/08/20/nx-s1-5506334/brain-computer-implant-speak-inner-speech-mind</t>
+          <t>https://www.npr.org/2025/08/22/nx-s1-5509673/trump-says-us-government-will-take-stake-intel</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Research suggests doctors might quickly become dependent on AI</t>
+          <t>These brain implants speak your mind — even when you don't want to</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>August 19, 2025 •A study in Poland found that doctors appeared less likely to detect abnormalities during colonoscopies on their own after they'd grown used to help from an AI tool.</t>
+          <t>August 20, 2025 •Brain-implanted devices that allow paralyzed people to speak can also decode words they imagine, but don't intend to share.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.npr.org/sections/shots-health-news/2025/08/19/nx-s1-5506292/doctors-ai-artificial-intelligence-dependent-colonoscopy</t>
+          <t>https://www.npr.org/sections/shots-health-news/2025/08/20/nx-s1-5506334/brain-computer-implant-speak-inner-speech-mind</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>An AI divide is growing in schools. This camp wants to level the playing field</t>
+          <t>Research suggests doctors might quickly become dependent on AI</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>August 19, 2025 •For years, research has shown a digital divide when it comes to schools teaching about new technologies. Educators worry that this could leave some students behind in an AI-powered economy.</t>
+          <t>August 19, 2025 •A study in Poland found that doctors appeared less likely to detect abnormalities during colonoscopies on their own after they'd grown used to help from an AI tool.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -847,85 +847,85 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/19/nx-s1-5503984/ai-summer-camp-schools-education</t>
+          <t>https://www.npr.org/sections/shots-health-news/2025/08/19/nx-s1-5506292/doctors-ai-artificial-intelligence-dependent-colonoscopy</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>What's behind the Trump administration's immigration memes?</t>
+          <t>An AI divide is growing in schools. This camp wants to level the playing field</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>August 18, 2025 •White supremacist tropes and ironic viral jokes illustrate the administration's project of redefining who belongs in the United States.</t>
+          <t>August 19, 2025 •For years, research has shown a digital divide when it comes to schools teaching about new technologies. Educators worry that this could leave some students behind in an AI-powered economy.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/18/nx-s1-5482921/memes-white-house-dhs-social-media-trump</t>
+          <t>https://www.npr.org/2025/08/19/nx-s1-5503984/ai-summer-camp-schools-education</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Class-action suit claims Otter AI secretly records private work conversations</t>
+          <t>What's behind the Trump administration's immigration memes?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>August 15, 2025 •The suit claims the popular service may be recording and processing millions of users' private conversations without consent.</t>
+          <t>August 18, 2025 •White supremacist tropes and ironic viral jokes illustrate the administration's project of redefining who belongs in the United States.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/15/g-s1-83087/otter-ai-transcription-class-action-lawsuit</t>
+          <t>https://www.npr.org/2025/08/18/nx-s1-5482921/memes-white-house-dhs-social-media-trump</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Anti-Trump podcast MeidasTouch is rivaling Joe Rogan. Does it have staying power?</t>
+          <t>Class-action suit claims Otter AI secretly records private work conversations</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>August 14, 2025 •The left-leaning media outfit has surged in Donald Trump's second term, appealing to progressives outraged by the president. Still, the online streaming world remains dominated by right-wing voices.</t>
+          <t>August 15, 2025 •The suit claims the popular service may be recording and processing millions of users' private conversations without consent.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/14/nx-s1-5493541/meidastouch-rogan-trump-podcast-video</t>
+          <t>https://www.npr.org/2025/08/15/g-s1-83087/otter-ai-transcription-class-action-lawsuit</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Trump is tightening the screws on corporate America — and CEOs are staying mum</t>
+          <t>Anti-Trump podcast MeidasTouch is rivaling Joe Rogan. Does it have staying power?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>August 14, 2025 •Critics warn that Trump's demands for business leaders to step down, and for the government to take a cut of sales, threaten American-style capitalism.</t>
+          <t>August 14, 2025 •The left-leaning media outfit has surged in Donald Trump's second term, appealing to progressives outraged by the president. Still, the online streaming world remains dominated by right-wing voices.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -935,51 +935,51 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/14/nx-s1-5501591/trump-corporate-america-capitalism</t>
+          <t>https://www.npr.org/2025/08/14/nx-s1-5493541/meidastouch-rogan-trump-podcast-video</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Say bye-bye to the beeps and boops of AOL's dial-up internet service</t>
+          <t>Trump is tightening the screws on corporate America — and CEOs are staying mum</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>August 12, 2025 •AOL debuted the service in 1989. Dial-up has largely been replaced by broadband internet.</t>
+          <t>August 14, 2025 •Critics warn that Trump's demands for business leaders to step down, and for the government to take a cut of sales, threaten American-style capitalism.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/12/nx-s1-5499539/aol-dial-up-ending</t>
+          <t>https://www.npr.org/2025/08/14/nx-s1-5501591/trump-corporate-america-capitalism</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ford says it will roll out a cheaper electric pickup truck</t>
+          <t>Say bye-bye to the beeps and boops of AOL's dial-up internet service</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>August 11, 2025 •Ford announced it will retool its Louisville Assembly Plant to focus on electric trucks. Its goal: to bring down prices for U.S. buyers and compete with Chinese EV makers on the global market.</t>
+          <t>August 12, 2025 •AOL debuted the service in 1989. Dial-up has largely been replaced by broadband internet.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.npr.org/2025/08/11/nx-s1-5496651/ford-cheap-electric-truck</t>
+          <t>https://www.npr.org/2025/08/12/nx-s1-5499539/aol-dial-up-ending</t>
         </is>
       </c>
     </row>
